--- a/VTigerProject/testData/TestData1.xlsx
+++ b/VTigerProject/testData/TestData1.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Contact" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>Username</t>
   </si>
@@ -37,13 +38,87 @@
   </si>
   <si>
     <t>Loggedin</t>
+  </si>
+  <si>
+    <t>Org_Name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>PhNo</t>
+  </si>
+  <si>
+    <t>Emps</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Ass_To</t>
+  </si>
+  <si>
+    <t>Assigne</t>
+  </si>
+  <si>
+    <t>Org_</t>
+  </si>
+  <si>
+    <t>https://demowebshop.tricentis.com/</t>
+  </si>
+  <si>
+    <t>abc123@gmail.com</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Partner</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Support Group</t>
+  </si>
+  <si>
+    <t>F_Name</t>
+  </si>
+  <si>
+    <t>L_Name</t>
+  </si>
+  <si>
+    <t>Tanuja</t>
+  </si>
+  <si>
+    <t>Sonawale</t>
+  </si>
+  <si>
+    <t>Address_Person</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,14 +152,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -368,34 +462,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -406,4 +500,119 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7855634210</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>